--- a/medicine/Mort/Liste_de_parlementaires_français_morts_à_la_Première_Guerre_mondiale/Liste_de_parlementaires_français_morts_à_la_Première_Guerre_mondiale.xlsx
+++ b/medicine/Mort/Liste_de_parlementaires_français_morts_à_la_Première_Guerre_mondiale/Liste_de_parlementaires_français_morts_à_la_Première_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_fran%C3%A7ais_morts_%C3%A0_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_de_parlementaires_français_morts_à_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Empire allemand déclare la guerre à la République française le 3 août 1914, et la France participe ainsi durant quatre ans à la Première Guerre mondiale, dans le camp des Alliés et contre les empires centraux. Quelque 1 400 000 hommes français, dont des soldats coloniaux, sont tués à la guerre durant ce conflit.
 Le régime politique en France est celui de la Troisième République, et Raymond Poincaré (Parti républicain démocratique) a été élu en 1913 président de la République, au scrutin indirect par l'Assemblée nationale. Des élections législatives ont eu lieu en avril et mai 1914, produisant le gouvernement de coalition de centre-gauche que mène le président du Conseil René Viviani (Parti républicain-socialiste). Le 26 août, en raison de la guerre, René Viviani prend la direction d'un nouveau gouvernement, d'Union sacrée, auquel participent tous les partis.
-Engagés dans les forces armées ou bien civils, seize membres de la Chambre des députés et un sénateur sont tués à la guerre et reconnus comme morts pour la patrie. S'y ajoutent deux sénateurs morts après avoir été retenus en otage par les forces allemandes. En voici la liste[1],[2].
+Engagés dans les forces armées ou bien civils, seize membres de la Chambre des députés et un sénateur sont tués à la guerre et reconnus comme morts pour la patrie. S'y ajoutent deux sénateurs morts après avoir été retenus en otage par les forces allemandes. En voici la liste,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_fran%C3%A7ais_morts_%C3%A0_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_de_parlementaires_français_morts_à_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
